--- a/biology/Botanique/Helianthus_pauciflorus/Helianthus_pauciflorus.xlsx
+++ b/biology/Botanique/Helianthus_pauciflorus/Helianthus_pauciflorus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Helianthus pauciflorus est une espèce de plantes à fleurs de la famille des astéracées qui appartient au même genre que le Tournesol (Helianthus). C'est une plante vivace originaire d'Amérique du Nord. Elle est cultivée pour ses fleurs jaunes décoratives.
 </t>
@@ -511,9 +523,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Tropicos                                           (19 mars 2022)[1] (Attention liste brute contenant possiblement des synonymes) :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (19 mars 2022) (Attention liste brute contenant possiblement des synonymes) :
 Helianthus pauciflorus subsp. pauciflorus
 Helianthus pauciflorus subsp. subrhomboideus (Rydb.) O. Spring &amp; E.E. Schill.
 Helianthus pauciflorus var. pauciflorus
